--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Event\脳トレゲーム制作コンペティション\BrainTraining64\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E08C28-8FE8-4460-9DC7-76490733318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E77FB-DF22-48A7-A705-B2A73B48773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="プロダクトA" sheetId="2" r:id="rId1"/>
+    <sheet name="プロダクトB" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>大枠</t>
     <rPh sb="0" eb="2">
@@ -240,6 +241,99 @@
     <t>応用処理</t>
     <rPh sb="0" eb="4">
       <t>オウヨウショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像のランダム表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像のランダム表示時の重なりをなくす（アルゴリズムで行けそう）</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解時に正解モーション表示の上、次の画面へ</t>
+    <rPh sb="0" eb="3">
+      <t>セイカイジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝手に画像が出てくる</t>
+    <rPh sb="0" eb="2">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度の適宜設定（画像の個数変更）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>テキギセッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>コスウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度の設定（体験時に決定）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タイケンジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,6 +401,1028 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B631A6A-C081-4B6E-8237-58F093511A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="333375"/>
+          <a:ext cx="6448425" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　をさがせ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="グラフィックス 2" descr="怒った顔 (塗りつぶしなし) 枠線">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D855DB2D-A457-4F35-844D-B9B8E6E4BA4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762875" y="2276475"/>
+          <a:ext cx="542925" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="グラフィックス 3" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D7129A-AF5F-4205-B761-FC9741B602AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="1924050"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="グラフィックス 4" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0DEDE4-81E2-421C-86A0-A3EC9E735FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="3019425"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="グラフィックス 6" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E437F5-5520-4E14-A625-54B127DF86E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="1428750"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="グラフィックス 7" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9665230F-AAB3-4262-B11D-95C3C33E09EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="2647950"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="グラフィックス 8" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0833C57F-5267-4112-9809-721EBE8681DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="2543175"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="グラフィックス 9" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D055B390-67D4-4AE8-B838-E139330472A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="2028825"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="グラフィックス 10" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560AD9D2-E694-4E7C-9AE3-1E42E97C981A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="1295400"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="グラフィックス 11" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C7A139-2491-476C-868A-D6F0BF4F4CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="1143000"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306CC4E9-5516-48DB-8F26-E7A5825159D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505825" y="2343150"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="グラフィックス 13" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6096D0AB-0F2E-471A-96B3-2FD8B6E1A6AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="3438525"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="グラフィックス 14" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BAF40C-8881-4335-AB5B-C3FC75E379DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="2447925"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="グラフィックス 15" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6448F0-7B25-498A-916A-8200826F68E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="3790950"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="グラフィックス 16" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA818FF-C768-4533-A84F-FD788C331734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="2257425"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="グラフィックス 17" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFA2F7A-8913-4EDD-A54C-FAA134008BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="3067050"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="グラフィックス 18" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B53F7E-69B7-4D0F-8ADD-5AD5E096507A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="2695575"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="グラフィックス 19" descr="天使の顔 (塗りつぶしなし) 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1809CD1F-8EDA-4566-82DA-213FD7293CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="3190875"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="グラフィックス 20" descr="怒った顔 (塗りつぶしなし) 枠線">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739867D2-4730-7728-4D1E-C7494297219B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619626" y="419101"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1192,11 +2308,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2021B41B-6531-43A1-96B8-E1660AFF2020}">
+  <dimension ref="A2:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Event\脳トレゲーム制作コンペティション\BrainTraining64\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E77FB-DF22-48A7-A705-B2A73B48773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8DF56-B257-48BD-93D3-913771F739F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21735" yWindow="-13695" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="プロダクトA" sheetId="2" r:id="rId1"/>
-    <sheet name="プロダクトB" sheetId="1" r:id="rId2"/>
+    <sheet name="Search_Game" sheetId="2" r:id="rId1"/>
+    <sheet name="Divide_Game" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2311,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2021B41B-6531-43A1-96B8-E1660AFF2020}">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
